--- a/all_job.xlsx
+++ b/all_job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>學位</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>技能</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -466,27 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>工程師 45k-60K</t>
+          <t>《FW-01》韌體工程師(新北市)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>雲書苑教育科技有限公司</t>
+          <t>義隆電子股份有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>台北市北投區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>大學</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -519,6 +529,11 @@
           <t>大學</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['PHP', 'Python', 'MySQL', 'HTML', 'JavaScript', 'CSS']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -526,17 +541,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>醫療器材-助理工程師</t>
+          <t>網路助理工程師★火熱招募中★年終獎金等優厚完善的福利★</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>丹美科技有限公司</t>
+          <t>文德福網絡服務有限公司</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>新北市五股區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Windows 98', 'Windows XP', 'Windows 7', 'Windows Server 2008', 'Android', 'iOS', 'Windows 8', 'Windows Server 2012', 'Vmware', 'LAN', 'TCP/IP', 'WAN', 'Excel', 'Ghost', 'PowerPoint', 'Visio', 'Word', 'WLAN']</t>
         </is>
       </c>
     </row>
@@ -556,17 +576,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASP .Net 網路應用程式工程師</t>
+          <t>系統開發部-軟體設計工程師(可培訓)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信諾科技股份有限公司</t>
+          <t>兆銀資訊系統股份有限公司</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>台北市大同區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -577,6 +597,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['ASP.NET', 'C#', 'Visual Studio']</t>
         </is>
       </c>
     </row>
@@ -586,27 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>醫療器材-韌體工程師</t>
+          <t>Software Engineer (全遠距工作)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>丹美科技有限公司</t>
+          <t>印度商威普羅股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>新北市五股區</t>
+          <t>台北市南港區</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>大學</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Linux', 'Python', 'TCL']</t>
         </is>
       </c>
     </row>
@@ -616,27 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>【數位轉型】VUE 前端工程師-2024擴編徵</t>
+          <t>Java Engineer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>雲策數據有限公司</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Java', 'Spring', 'MySQL', 'AWS']</t>
         </is>
       </c>
     </row>
@@ -646,27 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>【數位轉型】PHP 後端工程師-2024擴編徵才 Laravel框架</t>
+          <t>韌體工程師 ( 汐止總部 )</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>鐳洋科技股份有限公司</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>新北市汐止區</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['MCU', 'C++', 'Python']</t>
         </is>
       </c>
     </row>
@@ -676,27 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>【固得租車】PHP Laravel框架 後端助理工程師</t>
+          <t>相機影像工程師Camera Image Engineer_02213</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>緯創資通股份有限公司</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>新北市汐止區</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Linux', 'Android', 'C', 'Python']</t>
         </is>
       </c>
     </row>
@@ -706,27 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>【固得租車】PHP 全端工程師/資訊總監/擴編徵才/Laravel框架</t>
+          <t>系統開發部-軟體測試工程師(無經驗可)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>兆銀資訊系統股份有限公司</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -736,12 +786,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>【固得租車】PHP 後端工程師 Laravel Back-end Engineer</t>
+          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>KD_科定企業股份有限公司</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -751,12 +801,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -766,17 +821,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>【固得租車】VUE 前端工程師 Front-end Engineer</t>
+          <t>資訊助理</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>百達醫療產品股份有限公司</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -786,7 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Excel', 'PowerPoint', 'Word', '鼎新']</t>
         </is>
       </c>
     </row>
@@ -796,17 +856,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>【固得租車】VUE 前端助理工程師</t>
+          <t>(1)智能搬運部-嵌入式韌體工程師(FW)_(南港)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>廣運機械工程股份有限公司</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台北市南港區</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -816,7 +876,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['C', 'C++', 'ARM', 'Firmware']</t>
         </is>
       </c>
     </row>
@@ -826,27 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>【固得租車】iOS / Android軟體工程師</t>
+          <t>軟體實習生</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>東利租賃有限公司</t>
+          <t>宏思科技有限公司</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Excel', 'PowerPoint', 'Word', '中文打字20~50', '中文打字50~75', '英文打字20~50', '英文打字50~75']</t>
         </is>
       </c>
     </row>
@@ -856,17 +926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>軟體助理工程師</t>
+          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>全葳軟體資訊有限公司</t>
+          <t>立亨網絡服務有限公司</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>新北市林口區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -876,7 +946,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Excel']</t>
         </is>
       </c>
     </row>
@@ -886,27 +961,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>全端工程師</t>
+          <t>派駐Google | 雲端服務專案經理 CPM | GCP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>快快空間有限公司</t>
+          <t>HCL Technologies Taiwan_台灣愛渠西來技術股份有限公司</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>新北市新店區</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>6年以上</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>碩士</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -916,27 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台灣彩券_系統作業工程師(需輪班)</t>
+          <t>人資處資訊人員</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>台灣彩券股份有限公司</t>
+          <t>臺灣中小企業銀行股份有限公司</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市大同區</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -946,27 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>初階 Frontend(前端)工程師</t>
+          <t>I.資訊類-工程師(資訊系統及流程自動化)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>越世實業股份有限公司</t>
+          <t>資誠聯合會計師事務所</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>大學</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -976,17 +1066,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BEAMS 電商專員</t>
+          <t>資訊助理</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BEAMS_碧慕絲股份有限公司</t>
+          <t>第一金證券股份有限公司</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -997,6 +1087,11 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>系統分析師</t>
+          <t>AI 大數據科學家</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美台華德科技股份有限公司</t>
+          <t>昱峰智能大數據科技股份有限公司</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>新北市汐止區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Linux', 'Github', 'Python']</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1136,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>資訊助理人員</t>
+          <t>微風集團_資訊長期早晚班工讀生(時薪200，歡迎實習生或是日/夜間部學生加入)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>毅耀實業股份有限公司</t>
+          <t>微風廣場實業股份有限公司</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1171,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>第一事業群-帳務產品處-帳務一組-工程師(Powerbuilder程式開發)</t>
+          <t>PHP 工程師</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>凱衛資訊股份有限公司</t>
+          <t>達暉資訊有限公司</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Git', 'PHP', 'MySQL']</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1206,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHP CodeIgniter 後端工程師</t>
+          <t>C# .NET 資深軟體工程師</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>盛威資訊服務股份有限公司</t>
+          <t>汎神國際有限公司</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1116,7 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>

--- a/all_job.xlsx
+++ b/all_job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>技能</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>連結</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -471,32 +476,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《FW-01》韌體工程師(新北市)</t>
+          <t>資深遊戲客戶端工程師</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>義隆電子股份有限公司</t>
+          <t>艾思維特股份有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>新北市中和區</t>
+          <t>新北市汐止區</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>Android, iOS, C, C#, C++, JavaScript, Unity3D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7il7b?jobsource=hotjob_chr</t>
         </is>
       </c>
     </row>
@@ -506,22 +516,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>全端工程師 / 軟體工程師</t>
+          <t>資深工程師 (60k-65K)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>怪獸工作室有限公司</t>
+          <t>雲書苑教育科技有限公司</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市北投區</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,7 +541,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['PHP', 'Python', 'MySQL', 'HTML', 'JavaScript', 'CSS']</t>
+          <t>HTML, JavaScript, jQuery, CSS, Node.js, ReactJS, VueJS, Angular</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/868v4?jobsource=hotjob_chr</t>
         </is>
       </c>
     </row>
@@ -566,7 +581,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Windows 98', 'Windows XP', 'Windows 7', 'Windows Server 2008', 'Android', 'iOS', 'Windows 8', 'Windows Server 2012', 'Vmware', 'LAN', 'TCP/IP', 'WAN', 'Excel', 'Ghost', 'PowerPoint', 'Visio', 'Word', 'WLAN']</t>
+          <t>Windows 98, Windows XP, Windows 7, Windows Server 2008, Android, iOS, Windows 8, Windows Server 2012, Vmware, LAN, TCP/IP, WAN, Excel, Ghost, PowerPoint, Visio, Word, WLAN</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/6kv9h?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -601,7 +621,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ASP.NET', 'C#', 'Visual Studio']</t>
+          <t>ASP.NET, C#, Visual Studio</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/4erby?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -611,22 +636,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Engineer (全遠距工作)</t>
+          <t>後端工程師</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>印度商威普羅股份有限公司台灣分公司</t>
+          <t>微做科技股份有限公司</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -636,7 +661,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Linux', 'Python', 'TCL']</t>
+          <t>Git, Java, Spring</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/859nc?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -646,12 +676,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Java Engineer</t>
+          <t>駐點開發程式設計師</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>雲策數據有限公司</t>
+          <t>冠成科技服務有限公司</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,17 +691,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>高中</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Java', 'Spring', 'MySQL', 'AWS']</t>
+          <t>Android, iOS, UML, AJAX, ASP.NET, C, C#, C++, C++.Net, COBOL, Java, JSP, PHP, Python, Spring, Struts, Visual Basic, Visual Basic .net, Visual Studio .net, WinForm, Objective-C, SWIFT, MS SQL, MySQL, Oracle, PL/SQL, Vmware, HTML, JavaScript, jQuery, CSS, Node.js, ReactJS, AngularJS, VueJS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ah7s?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -681,22 +716,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>韌體工程師 ( 汐止總部 )</t>
+          <t>(IBM Consulting)Project Manager-Core Banking &amp; Payments</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鐳洋科技股份有限公司</t>
+          <t>IBM_台灣國際商業機器股份有限公司</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>新北市汐止區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>5年以上</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -706,7 +741,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['MCU', 'C++', 'Python']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/81lur?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -716,17 +756,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>相機影像工程師Camera Image Engineer_02213</t>
+          <t>Software Engineer (全遠距工作)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>緯創資通股份有限公司</t>
+          <t>印度商威普羅股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>新北市汐止區</t>
+          <t>台北市南港區</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -741,7 +781,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Linux', 'Android', 'C', 'Python']</t>
+          <t>Linux, Python, TCL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7j3rj?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -751,17 +796,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>系統開發部-軟體測試工程師(無經驗可)</t>
+          <t>Java Engineer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兆銀資訊系統股份有限公司</t>
+          <t>雲策數據有限公司</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>新北市中和區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,7 +821,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>Java, Spring, MySQL, AWS</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7w7np?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -786,32 +836,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
+          <t>韌體工程師 ( 汐止總部 )</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KD_科定企業股份有限公司</t>
+          <t>鐳洋科技股份有限公司</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>新北市汐止區</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>MCU, C++, Python</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8bq24?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -821,22 +876,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>資訊助理</t>
+          <t>相機影像工程師Camera Image Engineer_02213</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>百達醫療產品股份有限公司</t>
+          <t>緯創資通股份有限公司</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>新北市汐止區</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -846,7 +901,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Excel', 'PowerPoint', 'Word', '鼎新']</t>
+          <t>Linux, Android, C, Python</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8209y?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -856,22 +916,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(1)智能搬運部-嵌入式韌體工程師(FW)_(南港)</t>
+          <t>系統開發部-軟體測試工程師(無經驗可)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>廣運機械工程股份有限公司</t>
+          <t>兆銀資訊系統股份有限公司</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -881,7 +941,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['C', 'C++', 'ARM', 'Firmware']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/4gpkm?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -891,17 +956,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>軟體實習生</t>
+          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>宏思科技有限公司</t>
+          <t>KD_科定企業股份有限公司</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>新北市板橋區</t>
+          <t>新北市三重區</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -911,12 +976,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Excel', 'PowerPoint', 'Word', '中文打字20~50', '中文打字50~75', '英文打字20~50', '英文打字50~75']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8azye?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -926,32 +996,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
+          <t>資訊助理</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>立亨網絡服務有限公司</t>
+          <t>百達醫療產品股份有限公司</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Excel']</t>
+          <t>Excel, PowerPoint, Word, 鼎新</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7mq7c?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -961,32 +1036,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>派駐Google | 雲端服務專案經理 CPM | GCP</t>
+          <t>(1)智能搬運部-嵌入式韌體工程師(FW)_(南港)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HCL Technologies Taiwan_台灣愛渠西來技術股份有限公司</t>
+          <t>廣運機械工程股份有限公司</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>新北市新店區</t>
+          <t>台北市南港區</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>C, C++, ARM, Firmware</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7hplz?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -996,32 +1076,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>人資處資訊人員</t>
+          <t>軟體實習生</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>臺灣中小企業銀行股份有限公司</t>
+          <t>宏思科技有限公司</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>台北市大同區</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>Excel, PowerPoint, Word, 中文打字20~50, 中文打字50~75, 英文打字20~50, 英文打字50~75</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7il4c?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1116,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I.資訊類-工程師(資訊系統及流程自動化)</t>
+          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>資誠聯合會計師事務所</t>
+          <t>立亨網絡服務有限公司</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ac52?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1156,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>資訊助理</t>
+          <t>派駐Google | 雲端服務專案經理 CPM | GCP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>第一金證券股份有限公司</t>
+          <t>HCL Technologies Taiwan_台灣愛渠西來技術股份有限公司</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>新北市新店區</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>6年以上</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8bpuh?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1196,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AI 大數據科學家</t>
+          <t>人資處資訊人員</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>昱峰智能大數據科技股份有限公司</t>
+          <t>臺灣中小企業銀行股份有限公司</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>台北市大同區</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Linux', 'Github', 'Python']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7c7u5?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -1136,32 +1236,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>微風集團_資訊長期早晚班工讀生(時薪200，歡迎實習生或是日/夜間部學生加入)</t>
+          <t>Junior/Senior Front-End Engineer 【Application Team】</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>微風廣場實業股份有限公司</t>
+          <t>犀動智能科技股份有限公司</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>台北市中正區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7uz4l?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -1171,32 +1276,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHP 工程師</t>
+          <t>I.資訊類-工程師(資訊系統及流程自動化)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>達暉資訊有限公司</t>
+          <t>資誠聯合會計師事務所</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Git', 'PHP', 'MySQL']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8bq3d?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -1206,32 +1316,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C# .NET 資深軟體工程師</t>
+          <t>資訊助理</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汎神國際有限公司</t>
+          <t>第一金證券股份有限公司</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8702t?jobsource=index_s</t>
         </is>
       </c>
     </row>
